--- a/Prediction Results/Final Results/Segwise/ERRORS.xlsx
+++ b/Prediction Results/Final Results/Segwise/ERRORS.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +374,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.639399999999998</v>
+        <v>26.922560000000001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.04049</v>
+        <v>9.6820430000000002</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.26112</v>
+        <v>10.13058</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.5078110000000002</v>
+        <v>9.4977440000000009</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -418,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.522437</v>
+        <v>9.2634000000000007</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.5673820000000003</v>
+        <v>8.6108589999999996</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.09287</v>
+        <v>9.769641</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13.19449</v>
+        <v>12.221450000000001</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12.146100000000001</v>
+        <v>14.0509</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.2433</v>
+        <v>18.421099999999999</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>20.540420000000001</v>
+        <v>22.57948</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>9.5909420000000001</v>
+        <v>13.04049</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>12.72784</v>
+        <v>10.26112</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>9.4861500000000003</v>
+        <v>9.5078110000000002</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>9.2993190000000006</v>
+        <v>9.4950860000000006</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>8.5953929999999996</v>
+        <v>9.5673820000000003</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>9.699916</v>
+        <v>10.111470000000001</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>12.202249999999999</v>
+        <v>13.230040000000001</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>14.0259</v>
+        <v>12.146409999999999</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>18.462520000000001</v>
+        <v>13.2433</v>
       </c>
       <c r="C21">
         <v>2</v>
